--- a/new version/pin assign - ATtiny1634.xlsx
+++ b/new version/pin assign - ATtiny1634.xlsx
@@ -68,9 +68,6 @@
     <t>Potentiometer</t>
   </si>
   <si>
-    <t xml:space="preserve">ADC </t>
-  </si>
-  <si>
     <t>PA3</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>PC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC(POT) </t>
   </si>
 </sst>
 </file>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -538,21 +538,21 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -560,16 +560,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -577,16 +577,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
         <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -594,16 +594,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -611,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -620,12 +620,12 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -644,10 +644,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -655,10 +655,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -666,10 +666,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
